--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1353.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1353.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.156242253605955</v>
+        <v>1.21973717212677</v>
       </c>
       <c r="B1">
-        <v>2.605403980583447</v>
+        <v>2.568229675292969</v>
       </c>
       <c r="C1">
-        <v>4.126730841999595</v>
+        <v>9.288806915283203</v>
       </c>
       <c r="D1">
-        <v>2.690437945354367</v>
+        <v>2.062599897384644</v>
       </c>
       <c r="E1">
-        <v>1.164363587892161</v>
+        <v>1.186188340187073</v>
       </c>
     </row>
   </sheetData>
